--- a/downloads/手續費.xlsx
+++ b/downloads/手續費.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
   <si>
     <t xml:space="preserve">手續費率查詢欄位</t>
   </si>
@@ -265,33 +265,13 @@
     <t xml:space="preserve">新增級距表單</t>
   </si>
   <si>
-    <t xml:space="preserve">/store_rate_create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StoreRateCreate.vue</t>
+    <t xml:space="preserve">HandlingFeeFromStore.vue</t>
   </si>
   <si>
     <t xml:space="preserve">特店手續費率新新增表單</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">特店代號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_SEQ_NO</t>
-    </r>
+    <t xml:space="preserve">MERCHANT_NO</t>
   </si>
   <si>
     <t xml:space="preserve">唯讀</t>
@@ -300,7 +280,7 @@
     <t xml:space="preserve">交易類型</t>
   </si>
   <si>
-    <t xml:space="preserve">TRANSACTION_TYPE_CO</t>
+    <t xml:space="preserve">TXN_TYPE</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -315,7 +295,7 @@
     <t xml:space="preserve">手續費週期</t>
   </si>
   <si>
-    <t xml:space="preserve">FEE_CYCLE_CO</t>
+    <t xml:space="preserve">FEE_CYCLE_TYPE </t>
   </si>
   <si>
     <t xml:space="preserve">手續費週期爲每月時</t>
@@ -331,10 +311,16 @@
 幣別</t>
   </si>
   <si>
+    <t xml:space="preserve">ABROAD_FEE_CURRENCY </t>
+  </si>
+  <si>
     <t xml:space="preserve">國外卡手續費最低限額
 （元）</t>
   </si>
   <si>
+    <t xml:space="preserve">ABROAD _FEE_AMT </t>
+  </si>
+  <si>
     <t xml:space="preserve">裝機費用</t>
   </si>
   <si>
@@ -344,13 +330,13 @@
     <t xml:space="preserve">DATE</t>
   </si>
   <si>
-    <t xml:space="preserve">START_DATE</t>
+    <t xml:space="preserve">SDATE </t>
   </si>
   <si>
     <t xml:space="preserve">有效迄日</t>
   </si>
   <si>
-    <t xml:space="preserve">END_DATE</t>
+    <t xml:space="preserve">EDATE</t>
   </si>
   <si>
     <t xml:space="preserve">金額級距下限</t>
@@ -432,7 +418,30 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">特店代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_SEQ_NO</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSACTION_TYPE_CO</t>
   </si>
   <si>
     <t xml:space="preserve">上級距</t>
@@ -463,7 +472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -536,12 +545,12 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="DejaVu Sans"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="DejaVu Sans"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
     <font>
@@ -569,13 +578,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Noto Serif CJK SC"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -645,7 +650,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -756,14 +761,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -853,7 +850,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
@@ -1019,7 +1016,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
@@ -1283,7 +1280,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
@@ -1482,7 +1479,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.39"/>
   </cols>
@@ -1577,7 +1574,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.45"/>
   </cols>
@@ -1624,11 +1621,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
   </cols>
@@ -1638,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,7 +1643,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,7 +1651,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1676,12 +1673,13 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -1723,9 +1721,11 @@
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="19" t="n">
+        <v>19</v>
+      </c>
       <c r="E2" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -1737,7 +1737,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
@@ -1766,7 +1766,7 @@
         <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>41</v>
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>38</v>
@@ -1795,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1803,16 +1803,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>38</v>
@@ -1824,7 +1824,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>38</v>
@@ -1854,18 +1854,22 @@
       </c>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1890,7 +1894,9 @@
         <v>41</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1904,12 +1910,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
@@ -1929,19 +1935,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>38</v>
@@ -1956,19 +1962,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>38</v>
@@ -1988,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
@@ -1997,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
@@ -2017,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
@@ -2026,16 +2032,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>38</v>
@@ -2046,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
@@ -2055,16 +2061,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>38</v>
@@ -2121,11 +2127,11 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
@@ -2170,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -2178,11 +2184,11 @@
       <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>56</v>
+      <c r="H2" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
@@ -2199,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
@@ -2211,7 +2217,7 @@
         <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2233,10 +2239,10 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.23"/>
   </cols>
@@ -2275,14 +2281,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -2294,7 +2300,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,14 +2308,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
@@ -2321,21 +2327,21 @@
         <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>90</v>
+      <c r="B4" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>38</v>
@@ -2346,8 +2352,8 @@
       <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>87</v>
+      <c r="I4" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/手續費.xlsx
+++ b/downloads/手續費.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,9 @@
     <sheet name="新增級距_Component" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="手續費新增_Component" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="手續費新增_欄位1" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="手續費新增_卡別計費" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="手續費新增_級距計費" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="手續費新增_欄位明細1" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="手續費新增_卡別計費" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="手續費新增_級距計費" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="94">
   <si>
     <t xml:space="preserve">手續費率查詢欄位</t>
   </si>
@@ -277,13 +278,13 @@
     <t xml:space="preserve">唯讀</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">交易類型</t>
   </si>
   <si>
     <t xml:space="preserve">TXN_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">計費單位</t>
@@ -319,9 +320,6 @@
   </si>
   <si>
     <t xml:space="preserve">ABROAD _FEE_AMT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">裝機費用</t>
   </si>
   <si>
     <t xml:space="preserve">有效起日</t>
@@ -472,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -547,11 +545,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -566,13 +560,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -650,7 +637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -739,31 +726,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,7 +829,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
@@ -998,6 +977,142 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1016,7 +1131,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
@@ -1280,7 +1395,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
@@ -1479,7 +1594,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.39"/>
   </cols>
@@ -1574,7 +1689,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.45"/>
   </cols>
@@ -1621,11 +1736,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
   </cols>
@@ -1670,13 +1785,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.9"/>
@@ -1715,7 +1830,7 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1724,7 +1839,7 @@
       <c r="D2" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1733,19 +1848,19 @@
       <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="22" t="s">
         <v>55</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>56</v>
+      <c r="B3" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
@@ -1754,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
@@ -1766,14 +1881,14 @@
         <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1795,14 +1910,14 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1823,7 +1938,7 @@
       <c r="H5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1831,7 +1946,7 @@
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1852,13 +1967,13 @@
       <c r="H6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1876,24 +1991,26 @@
       <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>38</v>
+      <c r="H7" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>13.3</v>
+      </c>
       <c r="E8" s="19" t="s">
         <v>69</v>
       </c>
@@ -1903,8 +2020,8 @@
       <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
+      <c r="H8" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>38</v>
@@ -1914,19 +2031,23 @@
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="D9" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>38</v>
@@ -1939,15 +2060,17 @@
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="19" t="n">
+        <v>8</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>38</v>
@@ -1966,21 +2089,23 @@
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>74</v>
+      <c r="B11" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>38</v>
@@ -1989,41 +2114,41 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>76</v>
+      <c r="B12" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>78</v>
+      <c r="B13" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
@@ -2032,49 +2157,23 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>81</v>
+      <c r="H13" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>38</v>
-      </c>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -2102,9 +2201,6 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2125,13 +2221,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.9"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
@@ -2162,21 +2262,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>85</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -2184,19 +2284,19 @@
       <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>56</v>
+      <c r="B3" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
@@ -2205,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
@@ -2213,14 +2313,335 @@
       <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
+      <c r="H3" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I5:I6"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2236,16 +2657,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.23"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
@@ -2276,19 +2694,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>88</v>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="26" t="s">
-        <v>89</v>
+      <c r="D2" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -2296,64 +2716,40 @@
       <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>91</v>
+      <c r="B3" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
